--- a/Proto_SimpleProfiling.xlsx
+++ b/Proto_SimpleProfiling.xlsx
@@ -13,8 +13,10 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="NetIncomeFR">[1]Feuil1!$E$4</definedName>
-    <definedName name="TotalTax">[1]Feuil1!$F$13</definedName>
+    <definedName name="NetIncomeFR">[1]Feuil1!$E$6</definedName>
+    <definedName name="NetIncomeGB">Feuil1!$E$24</definedName>
+    <definedName name="TotalTax">[1]Feuil1!$F$15</definedName>
+    <definedName name="TotalTaxGB">Feuil1!$F$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -140,14 +142,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="E4">
-            <v>45000</v>
+        <row r="6">
+          <cell r="E6">
+            <v>90000</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="F13">
-            <v>7793.26</v>
+        <row r="15">
+          <cell r="F15">
+            <v>48204.54</v>
           </cell>
         </row>
       </sheetData>
@@ -446,7 +448,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +498,16 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
+      <c r="J5" s="3">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.35</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
